--- a/일정표 수정본.xlsx
+++ b/일정표 수정본.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\AtentsTeamCProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junho\Documents\GitHub\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62042CE7-0883-478E-8276-2EE45DB01BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59E0EA4-C328-47F8-838C-95462C3DF646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2958CF39-21A8-4035-986F-C0144D87399A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2958CF39-21A8-4035-986F-C0144D87399A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9055D414-93E1-41B5-BA29-93DB3C668864}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1026,7 +1026,6 @@
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>

--- a/일정표 수정본.xlsx
+++ b/일정표 수정본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\other\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B5CECF-C866-4994-B54D-A54C89B72183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B04D99-EA46-43CC-8893-2E9BAC61E2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>황준호</t>
   </si>
@@ -173,10 +173,6 @@
   </si>
   <si>
     <t>플레이어 근접 공격, 몬스터와 상호작용(타격처리)</t>
-  </si>
-  <si>
-    <t>4주차 04/27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>원거리 몬스터 구현</t>
@@ -187,10 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>필드 맵 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>작업물 확인 불가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -201,6 +193,26 @@
   <si>
     <t>팀 퇴출</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">필드 맵 구현 (일반 필드맵 1~2개이상, 보스방 1개(바위골렘용으로)) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차 04/03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차 04/10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 04/17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간평가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -210,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -228,6 +240,13 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -415,31 +434,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,7 +644,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -634,7 +653,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -948,10 +967,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:G22"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1018,19 +1037,19 @@
       <c r="B3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="24" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="24"/>
+      <c r="I3" s="30"/>
       <c r="N3" t="s">
         <v>23</v>
       </c>
@@ -1045,11 +1064,11 @@
       <c r="D4" s="15">
         <v>0.3</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1062,17 +1081,17 @@
         <v>6</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="24" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="30"/>
       <c r="N5" t="s">
         <v>47</v>
       </c>
@@ -1084,28 +1103,28 @@
       <c r="D6" s="17">
         <v>0.8</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="24" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="I7" s="30"/>
       <c r="N7" t="s">
         <v>39</v>
       </c>
@@ -1114,14 +1133,14 @@
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="26">
         <v>0</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="E8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1156,17 +1175,17 @@
       <c r="B10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="30"/>
       <c r="N10" t="s">
         <v>24</v>
       </c>
@@ -1181,28 +1200,28 @@
       <c r="D11" s="15">
         <v>0</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="30"/>
       <c r="N12" t="s">
         <v>40</v>
       </c>
@@ -1211,28 +1230,28 @@
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="30"/>
       <c r="M14" t="s">
         <v>34</v>
       </c>
@@ -1244,14 +1263,14 @@
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="E15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="N15" t="s">
         <v>48</v>
       </c>
@@ -1304,15 +1323,15 @@
       <c r="D17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="24" t="s">
+      <c r="E17" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="30"/>
       <c r="N17" t="s">
         <v>21</v>
       </c>
@@ -1324,7 +1343,7 @@
       <c r="B18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="25">
         <v>1</v>
       </c>
       <c r="N18" t="s">
@@ -1339,19 +1358,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="24" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="24"/>
+      <c r="I19" s="30"/>
       <c r="N19" t="s">
         <v>41</v>
       </c>
@@ -1375,17 +1394,17 @@
         <v>0</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="24" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="24"/>
+      <c r="I21" s="30"/>
       <c r="N21" t="s">
         <v>28</v>
       </c>
@@ -1397,18 +1416,18 @@
       <c r="C22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="26">
         <v>0</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>51</v>
       </c>
       <c r="C23" s="1">
         <v>45012</v>
@@ -1439,17 +1458,17 @@
       <c r="B24" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="24" t="s">
+      <c r="C24" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="24"/>
+      <c r="I24" s="30"/>
       <c r="M24" t="s">
         <v>1</v>
       </c>
@@ -1473,17 +1492,17 @@
         <v>6</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="24" t="s">
+      <c r="C26" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="24"/>
+      <c r="I26" s="30"/>
       <c r="M26" t="s">
         <v>3</v>
       </c>
@@ -1500,8 +1519,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>17</v>
+      <c r="A29" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="C29" s="1">
         <v>45012</v>
@@ -1540,13 +1559,13 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="24" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="24"/>
+      <c r="I30" s="30"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
@@ -1565,15 +1584,15 @@
         <v>6</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="24" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="24"/>
+      <c r="I32" s="30"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="23"/>
@@ -1581,18 +1600,63 @@
       <c r="Q32" s="23"/>
       <c r="R32" s="23"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="C34" s="2"/>
+      <c r="D34" s="1">
+        <v>45034</v>
+      </c>
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
     </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D35" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D36" s="28"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D37" s="28"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D38" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="C32:D32"/>
@@ -1609,30 +1673,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/일정표 수정본.xlsx
+++ b/일정표 수정본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\other\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B04D99-EA46-43CC-8893-2E9BAC61E2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01962AC-40DF-4982-B4C1-ECD68CE5BD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>황준호</t>
   </si>
@@ -179,40 +179,62 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>작업물 확인 불가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크립트 오류, 프리팹 확인 불가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 퇴출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">필드 맵 구현 (일반 필드맵 1~2개이상, 보스방 1개(바위골렘용으로)) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차 04/03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차 04/10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차 04/17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간평가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">필드 맵 구현 (일반 필드맵 1~2개이상, 보스방 1개(바위골렘용으로)) </t>
+  </si>
+  <si>
+    <t>원거리 몬스터 구현</t>
+  </si>
+  <si>
+    <t>파이어볼 딜레이 없이 발사중. 수정필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵에 함정이나 오브젝트가 일체 없음. 추후 배치 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 원거리 몬스터 파이어볼 구현 2. 보스몬스터 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 애니메이션 블랜딩, 무기 변경 구현, 표지판(설명용) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>여유</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업물 확인 불가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크립트 오류, 프리팹 확인 불가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 퇴출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">필드 맵 구현 (일반 필드맵 1~2개이상, 보스방 1개(바위골렘용으로)) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4주차 04/03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5주차 04/10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6주차 04/17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간평가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -249,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +365,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -443,22 +477,37 @@
     <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,8 +1018,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1046,10 +1095,10 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="28"/>
       <c r="N3" t="s">
         <v>23</v>
       </c>
@@ -1064,11 +1113,11 @@
       <c r="D4" s="15">
         <v>0.3</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1088,10 +1137,10 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="28"/>
       <c r="N5" t="s">
         <v>47</v>
       </c>
@@ -1103,11 +1152,11 @@
       <c r="D6" s="17">
         <v>0.8</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1121,10 +1170,10 @@
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="28"/>
       <c r="N7" t="s">
         <v>39</v>
       </c>
@@ -1136,11 +1185,11 @@
       <c r="D8" s="26">
         <v>0</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="E8" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1182,10 +1231,10 @@
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="28"/>
       <c r="N10" t="s">
         <v>24</v>
       </c>
@@ -1200,11 +1249,11 @@
       <c r="D11" s="15">
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1218,10 +1267,10 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="28"/>
       <c r="N12" t="s">
         <v>40</v>
       </c>
@@ -1230,9 +1279,9 @@
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1248,10 +1297,10 @@
         <v>38</v>
       </c>
       <c r="G14" s="29"/>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="28"/>
       <c r="M14" t="s">
         <v>34</v>
       </c>
@@ -1266,11 +1315,11 @@
       <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
       <c r="N15" t="s">
         <v>48</v>
       </c>
@@ -1323,15 +1372,15 @@
       <c r="D17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="30" t="s">
+      <c r="E17" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="28"/>
       <c r="N17" t="s">
         <v>21</v>
       </c>
@@ -1346,6 +1395,12 @@
       <c r="C18" s="25">
         <v>1</v>
       </c>
+      <c r="D18" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
       <c r="N18" t="s">
         <v>32</v>
       </c>
@@ -1362,15 +1417,15 @@
         <v>30</v>
       </c>
       <c r="D19" s="29"/>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="30" t="s">
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="28"/>
       <c r="N19" t="s">
         <v>41</v>
       </c>
@@ -1382,6 +1437,9 @@
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D20" s="33">
+        <v>0.75</v>
+      </c>
       <c r="N20" t="s">
         <v>22</v>
       </c>
@@ -1398,13 +1456,11 @@
         <v>38</v>
       </c>
       <c r="D21" s="29"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
       <c r="N21" t="s">
         <v>28</v>
       </c>
@@ -1419,15 +1475,15 @@
       <c r="D22" s="26">
         <v>0</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="E22" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1">
         <v>45012</v>
@@ -1458,17 +1514,19 @@
       <c r="B24" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="30" t="s">
+      <c r="C24" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="30"/>
+      <c r="I24" s="28"/>
       <c r="M24" t="s">
         <v>1</v>
       </c>
@@ -1480,8 +1538,11 @@
       <c r="B25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>10</v>
+      <c r="C25" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="M25" t="s">
         <v>2</v>
@@ -1492,24 +1553,29 @@
         <v>6</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="30" t="s">
+      <c r="C26" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="28"/>
       <c r="M26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C27" s="2" t="s">
-        <v>10</v>
+      <c r="C27" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -1520,7 +1586,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1">
         <v>45012</v>
@@ -1557,15 +1623,17 @@
       <c r="B30" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="30" t="s">
+      <c r="C30" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="28"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
@@ -1584,15 +1652,17 @@
         <v>6</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="29"/>
+      <c r="C32" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="D32" s="29"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="30" t="s">
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="30"/>
+      <c r="I32" s="28"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="23"/>
@@ -1607,7 +1677,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1">
@@ -1617,46 +1687,22 @@
       <c r="N34" s="23"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D35" s="28" t="s">
-        <v>60</v>
+      <c r="D35" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D36" s="28"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D37" s="28"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D38" s="28"/>
+      <c r="D38" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
+  <mergeCells count="42">
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="C32:D32"/>
@@ -1673,6 +1719,31 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/일정표 수정본.xlsx
+++ b/일정표 수정본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\other\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01962AC-40DF-4982-B4C1-ECD68CE5BD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E26D4F8-D695-4178-8E29-A59D64E2D59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>황준호</t>
   </si>
@@ -225,15 +225,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 원거리 몬스터 파이어볼 구현 2. 보스몬스터 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">플레이어 애니메이션 블랜딩, 무기 변경 구현, 표지판(설명용) </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>여유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몬스터 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -477,13 +477,28 @@
     <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -492,23 +507,8 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,8 +1018,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1095,10 +1095,10 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="28"/>
+      <c r="I3" s="32"/>
       <c r="N3" t="s">
         <v>23</v>
       </c>
@@ -1113,11 +1113,11 @@
       <c r="D4" s="15">
         <v>0.3</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1137,10 +1137,10 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="32"/>
       <c r="N5" t="s">
         <v>47</v>
       </c>
@@ -1152,11 +1152,11 @@
       <c r="D6" s="17">
         <v>0.8</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1170,10 +1170,10 @@
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="28"/>
+      <c r="I7" s="32"/>
       <c r="N7" t="s">
         <v>39</v>
       </c>
@@ -1185,11 +1185,11 @@
       <c r="D8" s="26">
         <v>0</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1231,10 +1231,10 @@
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="32"/>
       <c r="N10" t="s">
         <v>24</v>
       </c>
@@ -1249,11 +1249,11 @@
       <c r="D11" s="15">
         <v>0</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1267,10 +1267,10 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="28"/>
+      <c r="I12" s="32"/>
       <c r="N12" t="s">
         <v>40</v>
       </c>
@@ -1279,9 +1279,9 @@
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1297,10 +1297,10 @@
         <v>38</v>
       </c>
       <c r="G14" s="29"/>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="32"/>
       <c r="M14" t="s">
         <v>34</v>
       </c>
@@ -1315,11 +1315,11 @@
       <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
       <c r="N15" t="s">
         <v>48</v>
       </c>
@@ -1372,15 +1372,15 @@
       <c r="D17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="28" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="28"/>
+      <c r="I17" s="32"/>
       <c r="N17" t="s">
         <v>21</v>
       </c>
@@ -1395,12 +1395,12 @@
       <c r="C18" s="25">
         <v>1</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="27">
         <v>0.75</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="N18" t="s">
         <v>32</v>
       </c>
@@ -1417,15 +1417,15 @@
         <v>30</v>
       </c>
       <c r="D19" s="29"/>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="28" t="s">
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="28"/>
+      <c r="I19" s="32"/>
       <c r="N19" t="s">
         <v>41</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="27">
         <v>0.75</v>
       </c>
       <c r="N20" t="s">
@@ -1456,11 +1456,9 @@
         <v>38</v>
       </c>
       <c r="D21" s="29"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="N21" t="s">
         <v>28</v>
       </c>
@@ -1475,21 +1473,21 @@
       <c r="D22" s="26">
         <v>0</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="1">
-        <v>45012</v>
+        <v>45019</v>
       </c>
       <c r="D23" s="1">
-        <v>45013</v>
+        <v>45020</v>
       </c>
       <c r="E23" s="1">
         <v>45014</v>
@@ -1514,19 +1512,19 @@
       <c r="B24" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="28" t="s">
+      <c r="D24" s="36"/>
+      <c r="E24" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="28"/>
+      <c r="I24" s="32"/>
       <c r="M24" t="s">
         <v>1</v>
       </c>
@@ -1538,7 +1536,7 @@
       <c r="B25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="27">
         <v>0.8</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -1553,25 +1551,25 @@
         <v>6</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="28" t="s">
+      <c r="D26" s="36"/>
+      <c r="E26" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="28"/>
+      <c r="I26" s="32"/>
       <c r="M26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C27" s="33">
+      <c r="C27" s="27">
         <v>0.75</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -1601,7 +1599,7 @@
         <v>45015</v>
       </c>
       <c r="G29" s="1">
-        <v>45016</v>
+        <v>45030</v>
       </c>
       <c r="H29" s="1">
         <v>45017</v>
@@ -1623,17 +1621,19 @@
       <c r="B30" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>66</v>
+      <c r="C30" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="D30" s="29"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28" t="s">
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="28"/>
+      <c r="I30" s="32"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
@@ -1646,23 +1646,24 @@
       <c r="C31" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="37" t="s">
-        <v>66</v>
+      <c r="C32" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="D32" s="29"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28" t="s">
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="28"/>
+      <c r="I32" s="32"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="23"/>
@@ -1674,6 +1675,7 @@
       <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -1681,55 +1683,27 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1">
-        <v>45034</v>
+        <v>45030</v>
       </c>
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="31" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D36" s="27"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D37" s="27"/>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D38" s="27"/>
+      <c r="D38" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="D35:D38"/>
+  <mergeCells count="41">
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="C3:D3"/>
@@ -1744,6 +1718,33 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/일정표 수정본.xlsx
+++ b/일정표 수정본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\other\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E26D4F8-D695-4178-8E29-A59D64E2D59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B0D55-2DBD-47B7-8C35-82DDAF2FF99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>황준호</t>
   </si>
@@ -217,23 +217,26 @@
     <t>원거리 몬스터 구현</t>
   </si>
   <si>
-    <t>파이어볼 딜레이 없이 발사중. 수정필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>맵에 함정이나 오브젝트가 일체 없음. 추후 배치 필요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">플레이어 애니메이션 블랜딩, 무기 변경 구현, 표지판(설명용) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>여유</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>보스몬스터 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어볼 딜레이 없이 발사중. 수정 완</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 애니메이션 블렌딩 구현 성공</t>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 애니메이션 블랜딩, 게임 UI 구현, 표지판(설명용) </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,35 +483,32 @@
     <xf numFmtId="9" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="E26" sqref="E26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1095,10 +1095,10 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="28"/>
       <c r="N3" t="s">
         <v>23</v>
       </c>
@@ -1113,11 +1113,11 @@
       <c r="D4" s="15">
         <v>0.3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1137,10 +1137,10 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="28"/>
       <c r="N5" t="s">
         <v>47</v>
       </c>
@@ -1152,11 +1152,11 @@
       <c r="D6" s="17">
         <v>0.8</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1170,10 +1170,10 @@
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="28"/>
       <c r="N7" t="s">
         <v>39</v>
       </c>
@@ -1185,11 +1185,11 @@
       <c r="D8" s="26">
         <v>0</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1231,10 +1231,10 @@
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="32"/>
+      <c r="I10" s="28"/>
       <c r="N10" t="s">
         <v>24</v>
       </c>
@@ -1249,11 +1249,11 @@
       <c r="D11" s="15">
         <v>0</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1267,10 +1267,10 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="32"/>
+      <c r="I12" s="28"/>
       <c r="N12" t="s">
         <v>40</v>
       </c>
@@ -1279,9 +1279,9 @@
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1297,10 +1297,10 @@
         <v>38</v>
       </c>
       <c r="G14" s="29"/>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="32"/>
+      <c r="I14" s="28"/>
       <c r="M14" t="s">
         <v>34</v>
       </c>
@@ -1315,11 +1315,11 @@
       <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="N15" t="s">
         <v>48</v>
       </c>
@@ -1377,10 +1377,10 @@
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="32"/>
+      <c r="I17" s="28"/>
       <c r="N17" t="s">
         <v>21</v>
       </c>
@@ -1398,9 +1398,9 @@
       <c r="D18" s="27">
         <v>0.75</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
       <c r="N18" t="s">
         <v>32</v>
       </c>
@@ -1422,10 +1422,10 @@
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="32"/>
+      <c r="I19" s="28"/>
       <c r="N19" t="s">
         <v>41</v>
       </c>
@@ -1456,9 +1456,9 @@
         <v>38</v>
       </c>
       <c r="D21" s="29"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="N21" t="s">
         <v>28</v>
       </c>
@@ -1473,11 +1473,11 @@
       <c r="D22" s="26">
         <v>0</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
@@ -1516,15 +1516,15 @@
         <v>60</v>
       </c>
       <c r="D24" s="36"/>
-      <c r="E24" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="32" t="s">
+      <c r="E24" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="32"/>
+      <c r="I24" s="28"/>
       <c r="M24" t="s">
         <v>1</v>
       </c>
@@ -1540,7 +1540,10 @@
         <v>0.8</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
       </c>
       <c r="M25" t="s">
         <v>2</v>
@@ -1555,15 +1558,15 @@
         <v>61</v>
       </c>
       <c r="D26" s="36"/>
-      <c r="E26" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="32" t="s">
+      <c r="E26" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="32"/>
+      <c r="I26" s="28"/>
       <c r="M26" t="s">
         <v>3</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>0.75</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -1621,19 +1624,17 @@
       <c r="B30" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>65</v>
+      <c r="C30" s="34" t="s">
+        <v>63</v>
       </c>
       <c r="D30" s="29"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="32"/>
+      <c r="I30" s="28"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
@@ -1646,24 +1647,22 @@
       <c r="C31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="31"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="28" t="s">
-        <v>65</v>
+      <c r="C32" s="34" t="s">
+        <v>63</v>
       </c>
       <c r="D32" s="29"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32" t="s">
+      <c r="G32" s="30"/>
+      <c r="H32" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="32"/>
+      <c r="I32" s="28"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="23"/>
@@ -1675,7 +1674,7 @@
       <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="31"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -1689,21 +1688,46 @@
       <c r="N34" s="23"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D36" s="31"/>
+      <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D37" s="31"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D38" s="31"/>
+      <c r="D38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="C3:D3"/>
@@ -1720,31 +1744,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/일정표 수정본.xlsx
+++ b/일정표 수정본.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\other\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B0D55-2DBD-47B7-8C35-82DDAF2FF99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C23B8-2C47-4C44-934C-84C0EA65D7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>황준호</t>
   </si>
@@ -237,6 +237,38 @@
   </si>
   <si>
     <t xml:space="preserve">플레이어 애니메이션 블랜딩, 게임 UI 구현, 표지판(설명용) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 애니메이션 버그 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 UI 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%(임시)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>터널맵, 플랫폼 작업, 플레이어 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템(포션, 점수용 아이템)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 04/24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주차 05/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +415,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -398,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -483,31 +521,43 @@
     <xf numFmtId="9" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1016,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:G26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1086,19 +1136,19 @@
       <c r="B3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="28"/>
+      <c r="I3" s="34"/>
       <c r="N3" t="s">
         <v>23</v>
       </c>
@@ -1113,11 +1163,11 @@
       <c r="D4" s="15">
         <v>0.3</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1130,17 +1180,17 @@
         <v>6</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="28" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="34"/>
       <c r="N5" t="s">
         <v>47</v>
       </c>
@@ -1152,28 +1202,28 @@
       <c r="D6" s="17">
         <v>0.8</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="28" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="28"/>
+      <c r="I7" s="34"/>
       <c r="N7" t="s">
         <v>39</v>
       </c>
@@ -1185,11 +1235,11 @@
       <c r="D8" s="26">
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1224,17 +1274,17 @@
       <c r="B10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="28" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="34"/>
       <c r="N10" t="s">
         <v>24</v>
       </c>
@@ -1249,28 +1299,28 @@
       <c r="D11" s="15">
         <v>0</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="28" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="28"/>
+      <c r="I12" s="34"/>
       <c r="N12" t="s">
         <v>40</v>
       </c>
@@ -1279,28 +1329,28 @@
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28" t="s">
+      <c r="G14" s="31"/>
+      <c r="H14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="34"/>
       <c r="M14" t="s">
         <v>34</v>
       </c>
@@ -1315,11 +1365,11 @@
       <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="N15" t="s">
         <v>48</v>
       </c>
@@ -1372,15 +1422,15 @@
       <c r="D17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="28" t="s">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="28"/>
+      <c r="I17" s="34"/>
       <c r="N17" t="s">
         <v>21</v>
       </c>
@@ -1398,9 +1448,9 @@
       <c r="D18" s="27">
         <v>0.75</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
       <c r="N18" t="s">
         <v>32</v>
       </c>
@@ -1413,19 +1463,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="35" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="28" t="s">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="28"/>
+      <c r="I19" s="34"/>
       <c r="N19" t="s">
         <v>41</v>
       </c>
@@ -1452,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
       <c r="N21" t="s">
         <v>28</v>
       </c>
@@ -1473,11 +1523,11 @@
       <c r="D22" s="26">
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
@@ -1490,19 +1540,19 @@
         <v>45020</v>
       </c>
       <c r="E23" s="1">
-        <v>45014</v>
+        <v>45021</v>
       </c>
       <c r="F23" s="1">
-        <v>45015</v>
+        <v>45022</v>
       </c>
       <c r="G23" s="1">
-        <v>45016</v>
+        <v>45023</v>
       </c>
       <c r="H23" s="1">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="I23" s="1">
-        <v>45018</v>
+        <v>45025</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -1512,19 +1562,19 @@
       <c r="B24" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="32" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="28" t="s">
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="28"/>
+      <c r="I24" s="34"/>
       <c r="M24" t="s">
         <v>1</v>
       </c>
@@ -1554,19 +1604,19 @@
         <v>6</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="32" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="28" t="s">
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="28"/>
+      <c r="I26" s="34"/>
       <c r="M26" t="s">
         <v>3</v>
       </c>
@@ -1590,25 +1640,25 @@
         <v>57</v>
       </c>
       <c r="C29" s="1">
-        <v>45012</v>
+        <v>45026</v>
       </c>
       <c r="D29" s="1">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="E29" s="1">
-        <v>45014</v>
+        <v>45028</v>
       </c>
       <c r="F29" s="1">
-        <v>45015</v>
+        <v>45029</v>
       </c>
       <c r="G29" s="1">
         <v>45030</v>
       </c>
       <c r="H29" s="1">
-        <v>45017</v>
+        <v>45031</v>
       </c>
       <c r="I29" s="1">
-        <v>45018</v>
+        <v>45032</v>
       </c>
       <c r="O29" t="s">
         <v>8</v>
@@ -1624,17 +1674,17 @@
       <c r="B30" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="G30" s="30" t="s">
+      <c r="D30" s="31"/>
+      <c r="G30" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="28"/>
+      <c r="I30" s="34"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
@@ -1647,22 +1697,22 @@
       <c r="C31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="28" t="s">
+      <c r="D32" s="31"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="28"/>
+      <c r="I32" s="34"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="23"/>
@@ -1674,35 +1724,174 @@
       <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="37">
+        <v>45033</v>
+      </c>
       <c r="D34" s="1">
-        <v>45030</v>
+        <v>45034</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45035</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45036</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45037</v>
+      </c>
+      <c r="H34" s="1">
+        <v>45038</v>
+      </c>
+      <c r="I34" s="1">
+        <v>45039</v>
       </c>
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D35" s="30" t="s">
-        <v>59</v>
-      </c>
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D36" s="30"/>
+      <c r="B36" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D37" s="30"/>
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D38" s="30"/>
+      <c r="B38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="29"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="1">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F45" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F48" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="47">
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E37:G37"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="C32:D32"/>
@@ -1719,31 +1908,6 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/일정표 수정본.xlsx
+++ b/일정표 수정본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\other\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C23B8-2C47-4C44-934C-84C0EA65D7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51C71FA-D915-4E09-8D7B-A57C7D4E8234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
   <si>
     <t>황준호</t>
   </si>
   <si>
-    <t>아이템</t>
-  </si>
-  <si>
-    <t>맵</t>
-  </si>
-  <si>
-    <t>보스</t>
-  </si>
-  <si>
     <t>주형탁</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>대략적 작업 진행</t>
   </si>
   <si>
-    <t>플레이어 스테이터스</t>
-  </si>
-  <si>
     <t>보스를 잡게되면 출구가 나오고 게임이 클리어 된다.</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
   </si>
   <si>
     <t>플레이어 에셋 확정짓기</t>
-  </si>
-  <si>
-    <t>앞으로 일정 진행 방식</t>
   </si>
   <si>
     <t>아이템 오브젝트, 테스트용 플랫폼, 잡몹방 2개 제작</t>
@@ -269,6 +254,10 @@
   </si>
   <si>
     <t>발표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그수정 및 발표 준비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,12 +376,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -503,22 +486,19 @@
     <xf numFmtId="176" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -527,19 +507,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -548,17 +537,8 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,8 +1048,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1079,30 +1059,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6">
         <v>44998</v>
@@ -1126,50 +1106,50 @@
         <v>45004</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="29"/>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="15">
         <v>0.3</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="E4" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I4" s="16">
         <v>1</v>
@@ -1177,73 +1157,73 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="34"/>
+      <c r="C5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="29"/>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="17">
         <v>0.8</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="E6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="34"/>
+      <c r="C7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="29"/>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="26">
+        <v>7</v>
+      </c>
+      <c r="D8" s="24">
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="E8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>45005</v>
@@ -1269,109 +1249,109 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="29"/>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" s="15">
         <v>0</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="E11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="34"/>
+      <c r="C12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="29"/>
       <c r="N12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="34"/>
+      <c r="C14" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="29"/>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="26">
+        <v>7</v>
+      </c>
+      <c r="D15" s="24">
         <v>0</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="E15" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="N15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1379,7 +1359,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>45012</v>
@@ -1403,7 +1383,7 @@
         <v>45018</v>
       </c>
       <c r="N16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S16">
         <v>2</v>
@@ -1411,28 +1391,28 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="29"/>
       <c r="N17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S17">
         <v>6</v>
@@ -1440,19 +1420,19 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="25">
+        <v>38</v>
+      </c>
+      <c r="C18" s="23">
         <v>1</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="25">
         <v>0.75</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="N18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -1460,24 +1440,24 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="34"/>
+      <c r="C19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="29"/>
       <c r="N19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S19">
         <v>4</v>
@@ -1485,13 +1465,13 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="27">
+        <v>7</v>
+      </c>
+      <c r="D20" s="25">
         <v>0.75</v>
       </c>
       <c r="N20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S20">
         <v>3</v>
@@ -1502,15 +1482,15 @@
         <v>0</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="C21" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
       <c r="N21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S21">
         <v>5</v>
@@ -1518,20 +1498,20 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="26">
+        <v>7</v>
+      </c>
+      <c r="D22" s="24">
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="E22" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>56</v>
+      <c r="A23" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="C23" s="1">
         <v>45019</v>
@@ -1557,87 +1537,72 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="M24" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>27</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="27">
+        <v>38</v>
+      </c>
+      <c r="C25" s="25">
         <v>0.8</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>62</v>
+      <c r="D25" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M25" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="34"/>
-      <c r="M26" t="s">
-        <v>3</v>
-      </c>
+      <c r="C26" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C27" s="27">
+      <c r="C27" s="25">
         <v>0.75</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>65</v>
+      <c r="D27" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
-      <c r="M28" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
-        <v>57</v>
+      <c r="A29" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C29" s="1">
         <v>45026</v>
@@ -1660,77 +1625,79 @@
       <c r="I29" s="1">
         <v>45032</v>
       </c>
-      <c r="O29" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="G30" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="34"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="G30" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="29"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="29"/>
+        <v>7</v>
+      </c>
+      <c r="G31" s="28"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="34"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="37">
+        <v>7</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="26">
         <v>45033</v>
       </c>
       <c r="D34" s="1">
@@ -1751,116 +1718,229 @@
       <c r="I34" s="1">
         <v>45039</v>
       </c>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B36" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B38" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="28"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45040</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45041</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45042</v>
+      </c>
+      <c r="F39" s="1">
+        <v>45043</v>
+      </c>
+      <c r="G39" s="1">
+        <v>45044</v>
+      </c>
+      <c r="H39" s="1">
+        <v>45045</v>
+      </c>
+      <c r="I39" s="1">
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B41" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B43" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="38">
-        <v>0.7</v>
-      </c>
-      <c r="D36" s="29"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="29"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
-        <v>74</v>
+      <c r="C44" s="1">
+        <v>45047</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45048</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45049</v>
       </c>
       <c r="F44" s="1">
         <v>45050</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F45" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F46" s="29"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F47" s="29"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F48" s="29"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B48" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="48">
+    <mergeCell ref="C45:E48"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="F45:F48"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H19:I19"/>
@@ -1877,37 +1957,6 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/일정표 수정본.xlsx
+++ b/일정표 수정본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\other\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51C71FA-D915-4E09-8D7B-A57C7D4E8234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324B108F-F774-4A1C-8651-B43CEBF01A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t>황준호</t>
   </si>
@@ -237,14 +237,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>터널맵, 플랫폼 작업, 플레이어 UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템(포션, 점수용 아이템)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>7주차 04/24</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -258,6 +250,25 @@
   </si>
   <si>
     <t>버그수정 및 발표 준비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단 점프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>터널맵, 플랫폼 작업</t>
+  </si>
+  <si>
+    <t>포션, 코인 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 사망시 코인생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +415,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -419,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,37 +524,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,8 +1068,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1125,10 +1145,10 @@
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="35"/>
       <c r="N3" t="s">
         <v>20</v>
       </c>
@@ -1167,10 +1187,10 @@
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="35"/>
       <c r="N5" t="s">
         <v>42</v>
       </c>
@@ -1200,10 +1220,10 @@
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="35"/>
       <c r="N7" t="s">
         <v>34</v>
       </c>
@@ -1261,10 +1281,10 @@
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="35"/>
       <c r="N10" t="s">
         <v>21</v>
       </c>
@@ -1297,10 +1317,10 @@
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="29"/>
+      <c r="I12" s="35"/>
       <c r="N12" t="s">
         <v>35</v>
       </c>
@@ -1327,10 +1347,10 @@
         <v>33</v>
       </c>
       <c r="G14" s="30"/>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="35"/>
       <c r="M14" t="s">
         <v>30</v>
       </c>
@@ -1402,15 +1422,15 @@
       <c r="D17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="29" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="29"/>
+      <c r="I17" s="35"/>
       <c r="N17" t="s">
         <v>18</v>
       </c>
@@ -1447,15 +1467,15 @@
         <v>26</v>
       </c>
       <c r="D19" s="30"/>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="29" t="s">
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="29"/>
+      <c r="I19" s="35"/>
       <c r="N19" t="s">
         <v>36</v>
       </c>
@@ -1542,19 +1562,19 @@
       <c r="B24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="31" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="29" t="s">
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="29"/>
+      <c r="I24" s="35"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
@@ -1575,19 +1595,19 @@
         <v>3</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="31" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="29" t="s">
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="29"/>
+      <c r="I26" s="35"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C27" s="25">
@@ -1633,21 +1653,17 @@
       <c r="B30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="29" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="30"/>
       <c r="G30" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
+      <c r="I30" s="35"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
@@ -1663,37 +1679,23 @@
         <v>3</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="29" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="30"/>
       <c r="G32" s="28"/>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I32" s="35"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="28"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>53</v>
       </c>
@@ -1718,72 +1720,59 @@
       <c r="I34" s="1">
         <v>45039</v>
       </c>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D35" s="32"/>
+      <c r="E35" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B36" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="33">
         <v>0.7</v>
       </c>
       <c r="D36" s="28"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D37" s="32"/>
+      <c r="E37" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="39"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" s="19" t="s">
         <v>38</v>
       </c>
@@ -1792,9 +1781,9 @@
       </c>
       <c r="D38" s="28"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1">
         <v>45040</v>
@@ -1817,8 +1806,9 @@
       <c r="I39" s="1">
         <v>45046</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M39" s="22"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1826,12 +1816,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B41" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1839,14 +1829,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B43" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44" s="1">
         <v>45047</v>
@@ -1861,7 +1851,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1869,15 +1859,15 @@
         <v>41</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
       <c r="F45" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
         <v>38</v>
       </c>
@@ -1886,7 +1876,7 @@
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1898,7 +1888,7 @@
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B48" s="19" t="s">
         <v>38</v>
       </c>
@@ -1908,7 +1898,38 @@
       <c r="F48" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="47">
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G35:I35"/>
     <mergeCell ref="C45:E48"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E22:G22"/>
@@ -1925,38 +1946,6 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/일정표 수정본.xlsx
+++ b/일정표 수정본.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\other\AtentsTeamCProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\Main\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324B108F-F774-4A1C-8651-B43CEBF01A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B684BA4-2E67-4FD5-A5EF-35BDCB64249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
   <si>
     <t>황준호</t>
   </si>
@@ -269,6 +269,34 @@
   </si>
   <si>
     <t>몬스터 사망시 코인생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오버 씬 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70% (포션, 골드 이미지 없음)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80% (맵 몬스터, 비통과지역 설정 필요)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 씬, 씬 전환 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 사운드, 함정 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 UI 마무리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +446,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,46 +564,88 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,8 +1156,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39:M40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1136,19 +1224,19 @@
       <c r="B3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="35" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="35"/>
+      <c r="I3" s="32"/>
       <c r="N3" t="s">
         <v>20</v>
       </c>
@@ -1163,11 +1251,11 @@
       <c r="D4" s="15">
         <v>0.3</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1180,17 +1268,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="35" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="32"/>
       <c r="N5" t="s">
         <v>42</v>
       </c>
@@ -1202,28 +1290,28 @@
       <c r="D6" s="17">
         <v>0.8</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="35" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="32"/>
       <c r="N7" t="s">
         <v>34</v>
       </c>
@@ -1235,11 +1323,11 @@
       <c r="D8" s="24">
         <v>0</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1274,17 +1362,17 @@
       <c r="B10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="35" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="32"/>
       <c r="N10" t="s">
         <v>21</v>
       </c>
@@ -1299,28 +1387,28 @@
       <c r="D11" s="15">
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="35" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="35"/>
+      <c r="I12" s="32"/>
       <c r="N12" t="s">
         <v>35</v>
       </c>
@@ -1329,28 +1417,28 @@
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="35" t="s">
+      <c r="G14" s="33"/>
+      <c r="H14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="35"/>
+      <c r="I14" s="32"/>
       <c r="M14" t="s">
         <v>30</v>
       </c>
@@ -1365,11 +1453,11 @@
       <c r="D15" s="24">
         <v>0</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
       <c r="N15" t="s">
         <v>43</v>
       </c>
@@ -1422,15 +1510,15 @@
       <c r="D17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="35" t="s">
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="35"/>
+      <c r="I17" s="32"/>
       <c r="N17" t="s">
         <v>18</v>
       </c>
@@ -1448,9 +1536,9 @@
       <c r="D18" s="25">
         <v>0.75</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="N18" t="s">
         <v>28</v>
       </c>
@@ -1463,19 +1551,19 @@
         <v>3</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="35" t="s">
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="35"/>
+      <c r="I19" s="32"/>
       <c r="N19" t="s">
         <v>36</v>
       </c>
@@ -1502,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="N21" t="s">
         <v>24</v>
       </c>
@@ -1523,11 +1611,11 @@
       <c r="D22" s="24">
         <v>0</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
@@ -1562,19 +1650,19 @@
       <c r="B24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="36" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="35" t="s">
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="35"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
@@ -1595,19 +1683,19 @@
         <v>3</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="36" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="35" t="s">
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="35"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C27" s="25">
@@ -1653,17 +1741,17 @@
       <c r="B30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="G30" s="28" t="s">
+      <c r="D30" s="33"/>
+      <c r="G30" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="35"/>
+      <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
@@ -1672,28 +1760,28 @@
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="35" t="s">
+      <c r="D32" s="33"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="35"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -1728,30 +1816,43 @@
       <c r="B35" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="38" t="s">
+      <c r="D35" s="38"/>
+      <c r="E35" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="34" t="s">
+      <c r="G35" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="48" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B36" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="50">
         <v>0.7</v>
       </c>
-      <c r="D36" s="28"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="47">
+        <v>1</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -1760,26 +1861,47 @@
       <c r="B37" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="38" t="s">
+      <c r="D37" s="38"/>
+      <c r="E37" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="28"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45">
+        <v>1</v>
+      </c>
+      <c r="F38" s="45">
+        <v>1</v>
+      </c>
+      <c r="G38" s="45">
+        <v>1</v>
+      </c>
+      <c r="H38" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="I38" s="45">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
@@ -1815,6 +1937,10 @@
       <c r="B40" s="18" t="s">
         <v>41</v>
       </c>
+      <c r="C40" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="52"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B41" s="19" t="s">
@@ -1828,6 +1954,12 @@
       <c r="B42" s="18" t="s">
         <v>41</v>
       </c>
+      <c r="C42" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B43" s="19" t="s">
@@ -1858,12 +1990,12 @@
       <c r="B45" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="27" t="s">
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="30" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1871,10 +2003,10 @@
       <c r="B46" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -1883,22 +2015,55 @@
       <c r="B47" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B48" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="49">
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C45:E48"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="F45:F48"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H19:I19"/>
@@ -1915,37 +2080,6 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="C45:E48"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/일정표 수정본.xlsx
+++ b/일정표 수정본.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\other\AtentsTeamCProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B0D55-2DBD-47B7-8C35-82DDAF2FF99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1F34E9-CA7F-4DCD-BBFF-C1089AB53B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
   <si>
     <t>황준호</t>
   </si>
   <si>
-    <t>아이템</t>
-  </si>
-  <si>
-    <t>맵</t>
-  </si>
-  <si>
-    <t>보스</t>
-  </si>
-  <si>
     <t>주형탁</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>대략적 작업 진행</t>
   </si>
   <si>
-    <t>플레이어 스테이터스</t>
-  </si>
-  <si>
     <t>보스를 잡게되면 출구가 나오고 게임이 클리어 된다.</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
   </si>
   <si>
     <t>플레이어 에셋 확정짓기</t>
-  </si>
-  <si>
-    <t>앞으로 일정 진행 방식</t>
   </si>
   <si>
     <t>아이템 오브젝트, 테스트용 플랫폼, 잡몹방 2개 제작</t>
@@ -237,6 +222,65 @@
   </si>
   <si>
     <t xml:space="preserve">플레이어 애니메이션 블랜딩, 게임 UI 구현, 표지판(설명용) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 애니메이션 버그 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 UI 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%(임시)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차 04/24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주차 05/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그수정 및 발표 준비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단 점프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>터널맵, 플랫폼 작업</t>
+  </si>
+  <si>
+    <t>포션, 코인 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 사망시 코인생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표자료 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐 몬스터 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오버 UI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,12 +399,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -383,6 +421,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -398,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,22 +515,34 @@
     <xf numFmtId="176" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -489,26 +551,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,10 +1081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:G26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1029,30 +1094,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6">
         <v>44998</v>
@@ -1076,50 +1141,50 @@
         <v>45004</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="28"/>
+        <v>41</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="32"/>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="15">
         <v>0.3</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="E4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I4" s="16">
         <v>1</v>
@@ -1127,73 +1192,73 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="28"/>
+      <c r="C5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="32"/>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="17">
         <v>0.8</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="E6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="28"/>
+      <c r="C7" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="32"/>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="26">
+        <v>7</v>
+      </c>
+      <c r="D8" s="24">
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="E8" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>45005</v>
@@ -1219,109 +1284,109 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="28"/>
+        <v>41</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="32"/>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" s="15">
         <v>0</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="E11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="28"/>
+      <c r="C12" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="32"/>
       <c r="N12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="28"/>
+      <c r="C14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="32"/>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="26">
+        <v>7</v>
+      </c>
+      <c r="D15" s="24">
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="E15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
       <c r="N15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1329,7 +1394,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>45012</v>
@@ -1353,7 +1418,7 @@
         <v>45018</v>
       </c>
       <c r="N16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S16">
         <v>2</v>
@@ -1361,28 +1426,28 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="28"/>
+        <v>40</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="32"/>
       <c r="N17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S17">
         <v>6</v>
@@ -1390,19 +1455,19 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="25">
+        <v>38</v>
+      </c>
+      <c r="C18" s="23">
         <v>1</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="25">
         <v>0.75</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="N18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -1410,24 +1475,24 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="28"/>
+      <c r="C19" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="32"/>
       <c r="N19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S19">
         <v>4</v>
@@ -1435,13 +1500,13 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="27">
+        <v>7</v>
+      </c>
+      <c r="D20" s="25">
         <v>0.75</v>
       </c>
       <c r="N20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S20">
         <v>3</v>
@@ -1452,15 +1517,15 @@
         <v>0</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="C21" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="N21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S21">
         <v>5</v>
@@ -1468,20 +1533,20 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="26">
+        <v>7</v>
+      </c>
+      <c r="D22" s="24">
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="E22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>56</v>
+      <c r="A23" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="C23" s="1">
         <v>45019</v>
@@ -1490,219 +1555,388 @@
         <v>45020</v>
       </c>
       <c r="E23" s="1">
-        <v>45014</v>
+        <v>45021</v>
       </c>
       <c r="F23" s="1">
-        <v>45015</v>
+        <v>45022</v>
       </c>
       <c r="G23" s="1">
-        <v>45016</v>
+        <v>45023</v>
       </c>
       <c r="H23" s="1">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="I23" s="1">
-        <v>45018</v>
+        <v>45025</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="28"/>
-      <c r="M24" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>27</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="27">
+        <v>38</v>
+      </c>
+      <c r="C25" s="25">
         <v>0.8</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>62</v>
+      <c r="D25" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M25" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="28"/>
-      <c r="M26" t="s">
-        <v>3</v>
-      </c>
+      <c r="C26" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C27" s="27">
+      <c r="C27" s="25">
         <v>0.75</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>65</v>
+      <c r="D27" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
-      <c r="M28" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
-        <v>57</v>
+      <c r="A29" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C29" s="1">
-        <v>45012</v>
+        <v>45026</v>
       </c>
       <c r="D29" s="1">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="E29" s="1">
-        <v>45014</v>
+        <v>45028</v>
       </c>
       <c r="F29" s="1">
-        <v>45015</v>
+        <v>45029</v>
       </c>
       <c r="G29" s="1">
         <v>45030</v>
       </c>
       <c r="H29" s="1">
-        <v>45017</v>
+        <v>45031</v>
       </c>
       <c r="I29" s="1">
-        <v>45018</v>
-      </c>
-      <c r="O29" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" t="s">
-        <v>5</v>
+        <v>45032</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="G30" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="28"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="32"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="26">
+        <v>45033</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45034</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45035</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45036</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45037</v>
+      </c>
+      <c r="H34" s="1">
+        <v>45038</v>
+      </c>
+      <c r="I34" s="1">
+        <v>45039</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="39">
+        <v>0.7</v>
+      </c>
+      <c r="D36" s="31"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="28"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="30"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1">
-        <v>45030</v>
-      </c>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D35" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D36" s="30"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D37" s="30"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D38" s="30"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="41">
+        <v>1</v>
+      </c>
+      <c r="F38" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45040</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45041</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45042</v>
+      </c>
+      <c r="F39" s="1">
+        <v>45043</v>
+      </c>
+      <c r="G39" s="1">
+        <v>45044</v>
+      </c>
+      <c r="H39" s="1">
+        <v>45045</v>
+      </c>
+      <c r="I39" s="1">
+        <v>45046</v>
+      </c>
+      <c r="M39" s="22"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45047</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45048</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45049</v>
+      </c>
+      <c r="F44" s="1">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B48" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="48">
+    <mergeCell ref="C45:E48"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="C32:D32"/>
@@ -1718,8 +1952,12 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="G30:G33"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="H30:I30"/>
@@ -1728,6 +1966,9 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E30:F33"/>
+    <mergeCell ref="F45:F48"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="C3:D3"/>
@@ -1743,7 +1984,6 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
